--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoh\eclipse-workspace\FlipKartAppTestNg\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D0D43-F3CB-4F56-A1CD-CE3E890598E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77245A-E92C-49D2-A972-869C6899DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Username</t>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>abcd1234</t>
   </si>
 </sst>
 </file>
@@ -367,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -384,22 +375,6 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
